--- a/data/trans_bre/P74B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,58; 79,3</t>
+          <t>71,63; 79,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,49; 65,09</t>
+          <t>55,16; 65,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,05; 65,79</t>
+          <t>54,16; 65,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>455,59; 737,25</t>
+          <t>463,43; 748,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>237,5; 388,31</t>
+          <t>235,84; 394,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>238,79; 417,9</t>
+          <t>233,01; 396,42</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,2; 68,25</t>
+          <t>51,81; 68,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,31; 47,69</t>
+          <t>34,93; 47,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,18; 50,35</t>
+          <t>38,84; 50,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1266,06; 3732,52</t>
+          <t>1299,56; 3951,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>384,64; 863,19</t>
+          <t>410,86; 851,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>364,07; 679,93</t>
+          <t>384,99; 680,83</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,39; 91,04</t>
+          <t>55,76; 91,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,05; 64,03</t>
+          <t>26,68; 63,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,07; 50,7</t>
+          <t>18,78; 49,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>538,46; 2890,07</t>
+          <t>596,18; 3267,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>144,22; 939,53</t>
+          <t>141,8; 988,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>104,93; 522,01</t>
+          <t>100,25; 493,92</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,72; 78,43</t>
+          <t>71,97; 78,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,53; 58,78</t>
+          <t>51,51; 58,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,86; 57,39</t>
+          <t>49,81; 57,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>802,34; 1210,52</t>
+          <t>802,67; 1213,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>361,99; 529,66</t>
+          <t>362,25; 535,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>355,32; 518,39</t>
+          <t>351,29; 517,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,63; 79,75</t>
+          <t>71,5; 79,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,16; 65,54</t>
+          <t>55,46; 65,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,16; 65,64</t>
+          <t>54,59; 65,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>463,43; 748,69</t>
+          <t>458,29; 735,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>235,84; 394,89</t>
+          <t>242,69; 394,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>233,01; 396,42</t>
+          <t>238,82; 408,92</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,81; 68,06</t>
+          <t>52,29; 68,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,93; 47,38</t>
+          <t>34,91; 47,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,84; 50,17</t>
+          <t>39,33; 50,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1299,56; 3951,43</t>
+          <t>1220,74; 3657,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>410,86; 851,52</t>
+          <t>400,83; 848,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>384,99; 680,83</t>
+          <t>378,21; 682,05</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,76; 91,81</t>
+          <t>55,47; 90,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,68; 63,34</t>
+          <t>28,11; 63,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,78; 49,79</t>
+          <t>19,36; 50,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>596,18; 3267,77</t>
+          <t>541,91; 2718,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>141,8; 988,78</t>
+          <t>157,16; 1002,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>100,25; 493,92</t>
+          <t>111,52; 535,06</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,97; 78,52</t>
+          <t>72,08; 78,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,51; 58,9</t>
+          <t>52,07; 59,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,81; 57,58</t>
+          <t>50,03; 57,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>802,67; 1213,96</t>
+          <t>824,22; 1234,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>362,25; 535,12</t>
+          <t>366,54; 538,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>351,29; 517,47</t>
+          <t>357,17; 520,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,5; 79,62</t>
+          <t>71,58; 79,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,46; 65,55</t>
+          <t>55,49; 65,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,59; 65,54</t>
+          <t>55,05; 65,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>458,29; 735,58</t>
+          <t>455,59; 737,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>242,69; 394,89</t>
+          <t>237,5; 388,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>238,82; 408,92</t>
+          <t>238,79; 417,9</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,29; 68,48</t>
+          <t>52,2; 68,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,91; 47,59</t>
+          <t>34,31; 47,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,33; 50,22</t>
+          <t>39,18; 50,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1220,74; 3657,76</t>
+          <t>1266,06; 3732,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>400,83; 848,63</t>
+          <t>384,64; 863,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>378,21; 682,05</t>
+          <t>364,07; 679,93</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,47; 90,2</t>
+          <t>53,39; 91,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,11; 63,79</t>
+          <t>27,05; 64,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,36; 50,54</t>
+          <t>19,07; 50,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>541,91; 2718,23</t>
+          <t>538,46; 2890,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>157,16; 1002,88</t>
+          <t>144,22; 939,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>111,52; 535,06</t>
+          <t>104,93; 522,01</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,08; 78,6</t>
+          <t>71,72; 78,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,07; 59,66</t>
+          <t>51,53; 58,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,03; 57,3</t>
+          <t>49,86; 57,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>824,22; 1234,24</t>
+          <t>802,34; 1210,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>366,54; 538,21</t>
+          <t>361,99; 529,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>357,17; 520,79</t>
+          <t>355,32; 518,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,58; 79,3</t>
+          <t>71,52; 79,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,49; 65,09</t>
+          <t>55,19; 65,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,05; 65,79</t>
+          <t>54,66; 65,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>455,59; 737,25</t>
+          <t>455,33; 743,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>237,5; 388,31</t>
+          <t>234,13; 392,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>238,79; 417,9</t>
+          <t>239,24; 410,88</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,2; 68,25</t>
+          <t>52,11; 68,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,31; 47,69</t>
+          <t>35,42; 48,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,18; 50,35</t>
+          <t>39,21; 50,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1266,06; 3732,52</t>
+          <t>1303,42; 3917,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>384,64; 863,19</t>
+          <t>401,05; 898,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>364,07; 679,93</t>
+          <t>379,21; 686,03</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,39; 91,04</t>
+          <t>54,45; 90,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,05; 64,03</t>
+          <t>27,58; 62,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,07; 50,7</t>
+          <t>18,39; 49,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>538,46; 2890,07</t>
+          <t>576,09; 2750,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>144,22; 939,53</t>
+          <t>138,53; 907,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>104,93; 522,01</t>
+          <t>96,94; 490,82</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,72; 78,43</t>
+          <t>71,91; 78,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,53; 58,78</t>
+          <t>51,34; 58,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,86; 57,39</t>
+          <t>49,56; 57,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>802,34; 1210,52</t>
+          <t>810,39; 1228,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>361,99; 529,66</t>
+          <t>359,8; 538,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>355,32; 518,39</t>
+          <t>358,03; 521,16</t>
         </is>
       </c>
     </row>
